--- a/WpfClient/Resources/MaterialsInUseOffTemplateV1.xlsx
+++ b/WpfClient/Resources/MaterialsInUseOffTemplateV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\RequestManagementSystem\WpfClient\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7508501A-46AD-4C05-9C06-2AC4AB04D7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F5190-C468-4736-AAD2-17AAD4146AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Типовая межотраслевая форма № МБ-8
 Утверждена постановлением Госкомстата России
@@ -307,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -929,13 +929,22 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1198,6 +1207,126 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1216,30 +1345,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1252,107 +1360,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,10 +1674,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1695,171 +1707,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q1" s="88" t="s">
+      <c r="Q1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
     </row>
     <row r="2" spans="3:23" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
     </row>
     <row r="3" spans="3:23" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
     </row>
     <row r="4" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
     </row>
     <row r="5" spans="3:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
     </row>
     <row r="6" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="95"/>
+      <c r="R6" s="134"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="92" t="s">
+      <c r="T6" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
     </row>
     <row r="7" spans="3:23" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="3:23" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T8" s="4"/>
-      <c r="U8" s="96" t="s">
+      <c r="U8" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
     </row>
     <row r="9" spans="3:23" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R9" s="97" t="s">
+      <c r="R9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="98" t="s">
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
     </row>
     <row r="10" spans="3:23" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100" t="s">
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="101" t="s">
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
     </row>
     <row r="11" spans="3:23" s="6" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="3:23" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O12" s="104" t="s">
+      <c r="O12" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="106" t="s">
+      <c r="P12" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="106" t="s">
+      <c r="Q12" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="106" t="s">
+      <c r="R12" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="106"/>
+      <c r="S12" s="124"/>
       <c r="T12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1868,26 +1880,26 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="3:23" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O13" s="105"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="107"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="126"/>
       <c r="T13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="110" t="s">
+      <c r="U13" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
     </row>
     <row r="14" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O14" s="12"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
       <c r="T14" s="15"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -1938,25 +1950,25 @@
       <c r="W20" s="28"/>
     </row>
     <row r="21" spans="3:23" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="112"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="114"/>
+      <c r="K21" s="113"/>
       <c r="L21" s="32" t="s">
         <v>31</v>
       </c>
@@ -1975,39 +1987,39 @@
       <c r="Q21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="115" t="s">
+      <c r="R21" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="115"/>
+      <c r="S21" s="114"/>
       <c r="T21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U21" s="116" t="s">
+      <c r="U21" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
     </row>
     <row r="22" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="117"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="118" t="s">
+      <c r="F22" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="119" t="s">
+      <c r="J22" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="119"/>
+      <c r="K22" s="116"/>
       <c r="L22" s="36" t="s">
         <v>43</v>
       </c>
@@ -2026,68 +2038,68 @@
       <c r="Q22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R22" s="120" t="s">
+      <c r="R22" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="S22" s="120"/>
+      <c r="S22" s="117"/>
       <c r="T22" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="U22" s="118" t="s">
+      <c r="U22" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
     </row>
     <row r="23" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="38"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
       <c r="L23" s="42"/>
       <c r="M23" s="38"/>
       <c r="N23" s="43"/>
       <c r="O23" s="44"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
       <c r="T23" s="42"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="41"/>
     </row>
     <row r="24" spans="3:23" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="39"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="38"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
       <c r="L24" s="42"/>
       <c r="M24" s="38"/>
       <c r="N24" s="46"/>
       <c r="O24" s="47"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="38"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
       <c r="T24" s="42"/>
       <c r="U24" s="40"/>
       <c r="V24" s="40"/>
       <c r="W24" s="41"/>
     </row>
     <row r="25" spans="3:23" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -2107,8 +2119,8 @@
       <c r="O25" s="53"/>
       <c r="P25" s="54"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
       <c r="V25" s="48"/>
@@ -2116,22 +2128,22 @@
     </row>
     <row r="26" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="3:23" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
     </row>
     <row r="28" spans="3:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L28" s="56" t="s">
@@ -2149,8 +2161,8 @@
       </c>
     </row>
     <row r="31" spans="3:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="57"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
@@ -2168,8 +2180,8 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
       <c r="T31" s="58" t="s">
         <v>59</v>
       </c>
@@ -2178,10 +2190,10 @@
       <c r="W31" s="59"/>
     </row>
     <row r="32" spans="3:23" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="129"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="61" t="s">
         <v>17</v>
       </c>
@@ -2211,10 +2223,10 @@
       <c r="Q32" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R32" s="116" t="s">
+      <c r="R32" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="S32" s="116"/>
+      <c r="S32" s="104"/>
       <c r="T32" s="68" t="s">
         <v>65</v>
       </c>
@@ -2223,10 +2235,10 @@
       <c r="W32" s="67"/>
     </row>
     <row r="33" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="130"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="70" t="s">
         <v>39</v>
       </c>
@@ -2256,10 +2268,10 @@
       <c r="Q33" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="118" t="s">
+      <c r="R33" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="S33" s="118"/>
+      <c r="S33" s="106"/>
       <c r="T33" s="73" t="s">
         <v>48</v>
       </c>
@@ -2268,8 +2280,8 @@
       <c r="W33" s="74"/>
     </row>
     <row r="34" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2283,16 +2295,16 @@
       <c r="O34" s="75"/>
       <c r="P34" s="75"/>
       <c r="Q34" s="75"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="75"/>
     </row>
     <row r="35" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2306,16 +2318,16 @@
       <c r="O35" s="75"/>
       <c r="P35" s="75"/>
       <c r="Q35" s="75"/>
-      <c r="R35" s="132"/>
-      <c r="S35" s="132"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="75"/>
     </row>
     <row r="36" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2329,16 +2341,16 @@
       <c r="O36" s="75"/>
       <c r="P36" s="75"/>
       <c r="Q36" s="75"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="132"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="75"/>
     </row>
     <row r="37" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2352,16 +2364,16 @@
       <c r="O37" s="75"/>
       <c r="P37" s="75"/>
       <c r="Q37" s="75"/>
-      <c r="R37" s="132"/>
-      <c r="S37" s="132"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="75"/>
     </row>
     <row r="38" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2375,16 +2387,16 @@
       <c r="O38" s="75"/>
       <c r="P38" s="75"/>
       <c r="Q38" s="75"/>
-      <c r="R38" s="132"/>
-      <c r="S38" s="132"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="75"/>
     </row>
     <row r="39" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="77"/>
       <c r="F39" s="77"/>
       <c r="G39" s="77"/>
@@ -2398,8 +2410,8 @@
       <c r="O39" s="78"/>
       <c r="P39" s="78"/>
       <c r="Q39" s="78"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
       <c r="T39" s="81"/>
       <c r="U39" s="81"/>
       <c r="V39" s="81"/>
@@ -2414,170 +2426,92 @@
       </c>
       <c r="P40" s="84"/>
       <c r="Q40" s="82"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-    </row>
-    <row r="41" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="136" t="s">
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+    </row>
+    <row r="41" spans="3:23" s="1" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="136"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="139"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
+      <c r="D41" s="91"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I42" s="85"/>
-      <c r="J42" s="138" t="s">
+      <c r="J42" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K42" s="138"/>
-      <c r="L42" s="2" t="s">
+      <c r="K42" s="89"/>
+      <c r="L42" s="140" t="s">
         <v>4</v>
       </c>
+      <c r="M42" s="140"/>
       <c r="N42" s="86" t="s">
         <v>5</v>
       </c>
       <c r="O42" s="86"/>
     </row>
-    <row r="43" spans="3:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="136" t="s">
+    <row r="43" spans="3:23" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
+      <c r="D43" s="91"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I44" s="85"/>
-      <c r="J44" s="138" t="s">
+      <c r="J44" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K44" s="138"/>
-      <c r="L44" s="2" t="s">
+      <c r="K44" s="89"/>
+      <c r="L44" s="140" t="s">
         <v>4</v>
       </c>
+      <c r="M44" s="140"/>
       <c r="N44" s="86" t="s">
         <v>5</v>
       </c>
       <c r="O44" s="86"/>
     </row>
-    <row r="45" spans="3:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
+    <row r="45" spans="3:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I46" s="85"/>
-      <c r="J46" s="138" t="s">
+      <c r="J46" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="138"/>
-      <c r="L46" s="2" t="s">
+      <c r="K46" s="89"/>
+      <c r="L46" s="140" t="s">
         <v>4</v>
       </c>
+      <c r="M46" s="140"/>
       <c r="N46" s="86" t="s">
         <v>5</v>
       </c>
       <c r="O46" s="86"/>
     </row>
-    <row r="47" spans="3:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="137"/>
-    </row>
-    <row r="48" spans="3:23" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="85"/>
-      <c r="J48" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" s="138"/>
-      <c r="L48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="86"/>
-    </row>
-    <row r="49" spans="3:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="47" spans="3:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="87" t="s">
+    <row r="48" spans="3:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="87" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:P27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
+  <mergeCells count="73">
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="Q1:W1"/>
@@ -2589,6 +2523,68 @@
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="T6:W6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:P27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L46:M46"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
